--- a/data/jeonnam_juso.xlsx
+++ b/data/jeonnam_juso.xlsx
@@ -1,17 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10526"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yejilim/Desktop/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D4338B3-CA00-DB42-A80B-4742794CE2A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="29400" windowHeight="17260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="60">
   <si>
     <t>시도</t>
   </si>
@@ -19,208 +28,208 @@
     <t>시군구</t>
   </si>
   <si>
+    <t>기관명</t>
+  </si>
+  <si>
+    <t>전남</t>
+  </si>
+  <si>
+    <t>고흥군</t>
+  </si>
+  <si>
+    <t>고흥로 1745-2 2층</t>
+  </si>
+  <si>
+    <t>잘자고 마음편한 키다리 정신의학과 의원</t>
+  </si>
+  <si>
+    <t>곡성군</t>
+  </si>
+  <si>
+    <t>곡성로 761</t>
+  </si>
+  <si>
+    <t>곡성사랑병원</t>
+  </si>
+  <si>
+    <t>담양군</t>
+  </si>
+  <si>
+    <t>지침3길 13, 2층 202호</t>
+  </si>
+  <si>
+    <t>더맑은정신건강의학과</t>
+  </si>
+  <si>
+    <t>용산로 369</t>
+  </si>
+  <si>
+    <t>참사랑병원</t>
+  </si>
+  <si>
+    <t>차동길2-62</t>
+  </si>
+  <si>
+    <t>창평우리병원</t>
+  </si>
+  <si>
+    <t>보성군</t>
+  </si>
+  <si>
+    <t>남하로 12</t>
+  </si>
+  <si>
+    <t>벌교삼호병원</t>
+  </si>
+  <si>
+    <t>송재로 59-2</t>
+  </si>
+  <si>
+    <t>보성제일병원</t>
+  </si>
+  <si>
+    <t>순천시</t>
+  </si>
+  <si>
+    <t>순천시 조례1길 24</t>
+  </si>
+  <si>
+    <t>근로복지공단 순천병원</t>
+  </si>
+  <si>
+    <t>이수로 315</t>
+  </si>
+  <si>
+    <t>김량진정신건강의학과의원</t>
+  </si>
+  <si>
+    <t>팔마로205</t>
+  </si>
+  <si>
+    <t>김인호정신건강의학과</t>
+  </si>
+  <si>
+    <t>왕지2길 4-20 (2층)</t>
+  </si>
+  <si>
+    <t>담은정신건강의학과</t>
+  </si>
+  <si>
+    <t>순광로 6, 시영빌딩 4층</t>
+  </si>
+  <si>
+    <t>민정신건강의학과</t>
+  </si>
+  <si>
+    <t>이수로 319 3층</t>
+  </si>
+  <si>
+    <t>밝은마을정신건강의학과</t>
+  </si>
+  <si>
+    <t>순광로 221</t>
+  </si>
+  <si>
+    <t>성가롤로병원</t>
+  </si>
+  <si>
+    <t>읍성로 302</t>
+  </si>
+  <si>
+    <t>순천은병원</t>
+  </si>
+  <si>
+    <t>중앙로119-1</t>
+  </si>
+  <si>
+    <t>이수로325 5층</t>
+  </si>
+  <si>
+    <t>웰빙의원</t>
+  </si>
+  <si>
+    <t>서문성터길2 (매곡동)</t>
+  </si>
+  <si>
+    <t>전라남도순천의료원</t>
+  </si>
+  <si>
+    <t>대석길 20</t>
+  </si>
+  <si>
+    <t>최종영신경정신과</t>
+  </si>
+  <si>
+    <t>화순군</t>
+  </si>
+  <si>
+    <t>고인돌1로 282-14</t>
+  </si>
+  <si>
+    <t>보은병원</t>
+  </si>
+  <si>
+    <t>충의로 109</t>
+  </si>
+  <si>
+    <t>화순고려병원</t>
+  </si>
+  <si>
+    <t>만연로 31</t>
+  </si>
+  <si>
+    <t>화순성심병원</t>
+  </si>
+  <si>
+    <t>서양로 322</t>
+  </si>
+  <si>
+    <t>화순전남대학교병원</t>
+  </si>
+  <si>
+    <t>전체주소</t>
+  </si>
+  <si>
+    <t>위도</t>
+  </si>
+  <si>
+    <t>경도</t>
+  </si>
+  <si>
+    <t>순천정신과의원</t>
+  </si>
+  <si>
     <t>주소</t>
-  </si>
-  <si>
-    <t>기관명</t>
-  </si>
-  <si>
-    <t>전남</t>
-  </si>
-  <si>
-    <t>고흥군</t>
-  </si>
-  <si>
-    <t>고흥로 1745-2 2층</t>
-  </si>
-  <si>
-    <t>잘자고 마음편한 키다리 정신의학과 의원</t>
-  </si>
-  <si>
-    <t>곡성군</t>
-  </si>
-  <si>
-    <t>곡성로 761</t>
-  </si>
-  <si>
-    <t>곡성사랑병원</t>
-  </si>
-  <si>
-    <t>구례군</t>
-  </si>
-  <si>
-    <t>로터리길 17, 정다운빌딩 3층</t>
-  </si>
-  <si>
-    <t>해피뷰정신건강의학과의원</t>
-  </si>
-  <si>
-    <t>담양군</t>
-  </si>
-  <si>
-    <t>지침3길 13, 2층 202호</t>
-  </si>
-  <si>
-    <t>더맑은정신건강의학과</t>
-  </si>
-  <si>
-    <t>용산로 369</t>
-  </si>
-  <si>
-    <t>참사랑병원</t>
-  </si>
-  <si>
-    <t>차동길2-62</t>
-  </si>
-  <si>
-    <t>창평우리병원</t>
-  </si>
-  <si>
-    <t>보성군</t>
-  </si>
-  <si>
-    <t>남하로 12</t>
-  </si>
-  <si>
-    <t>벌교삼호병원</t>
-  </si>
-  <si>
-    <t>송재로 59-2</t>
-  </si>
-  <si>
-    <t>보성제일병원</t>
-  </si>
-  <si>
-    <t>순천시</t>
-  </si>
-  <si>
-    <t>순천시 조례1길 24</t>
-  </si>
-  <si>
-    <t>근로복지공단 순천병원</t>
-  </si>
-  <si>
-    <t>이수로 315</t>
-  </si>
-  <si>
-    <t>김량진정신건강의학과의원</t>
-  </si>
-  <si>
-    <t>팔마로205</t>
-  </si>
-  <si>
-    <t>김인호정신건강의학과</t>
-  </si>
-  <si>
-    <t>왕지2길 4-20 (2층)</t>
-  </si>
-  <si>
-    <t>담은정신건강의학과</t>
-  </si>
-  <si>
-    <t>순광로 6, 시영빌딩 4층</t>
-  </si>
-  <si>
-    <t>민정신건강의학과</t>
-  </si>
-  <si>
-    <t>이수로 319 3층</t>
-  </si>
-  <si>
-    <t>밝은마을정신건강의학과</t>
-  </si>
-  <si>
-    <t>순광로 221</t>
-  </si>
-  <si>
-    <t>성가롤로병원</t>
-  </si>
-  <si>
-    <t>읍성로 302</t>
-  </si>
-  <si>
-    <t>순천은병원</t>
-  </si>
-  <si>
-    <t>중앙로119-1</t>
-  </si>
-  <si>
-    <t>순천정신건강의학과</t>
-  </si>
-  <si>
-    <t>이수로325 5층</t>
-  </si>
-  <si>
-    <t>웰빙의원</t>
-  </si>
-  <si>
-    <t>서문성터길2 (매곡동)</t>
-  </si>
-  <si>
-    <t>전라남도순천의료원</t>
-  </si>
-  <si>
-    <t>대석길 20</t>
-  </si>
-  <si>
-    <t>최종영신경정신과</t>
-  </si>
-  <si>
-    <t>화순군</t>
-  </si>
-  <si>
-    <t>고인돌1로 282-14</t>
-  </si>
-  <si>
-    <t>보은병원</t>
-  </si>
-  <si>
-    <t>충의로 109</t>
-  </si>
-  <si>
-    <t>화순고려병원</t>
-  </si>
-  <si>
-    <t>만연로 31</t>
-  </si>
-  <si>
-    <t>화순성심병원</t>
-  </si>
-  <si>
-    <t>서양로 322</t>
-  </si>
-  <si>
-    <t>화순전남대학교병원</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="0" formatCode="General"/>
-  </numFmts>
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Helvetica Neue"/>
-    </font>
-    <font>
-      <sz val="15"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b val="1"/>
+      <b/>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -283,7 +292,7 @@
         <color indexed="10"/>
       </right>
       <top style="thin">
-        <color indexed="8"/>
+        <color indexed="10"/>
       </top>
       <bottom style="thin">
         <color indexed="10"/>
@@ -292,47 +301,32 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="10"/>
+        <color indexed="8"/>
       </left>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
+      <right/>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+  <cellXfs count="8">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -341,24 +335,85 @@
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffaaaaaa"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFAAAAAA"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office Theme">
       <a:dk1>
@@ -484,7 +539,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -493,7 +548,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -502,7 +557,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="20000" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="20000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -576,7 +631,7 @@
           <a:round/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+          <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
             <a:srgbClr val="000000">
               <a:alpha val="35000"/>
             </a:srgbClr>
@@ -584,7 +639,7 @@
         </a:effectLst>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -602,7 +657,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -631,7 +686,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -656,7 +711,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -681,7 +736,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -706,7 +761,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -731,7 +786,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -756,7 +811,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -781,7 +836,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -806,7 +861,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -831,7 +886,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -844,9 +899,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -861,7 +922,7 @@
           <a:round/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="20000" dir="5400000">
+          <a:outerShdw blurRad="38100" dist="20000" dir="5400000" rotWithShape="0">
             <a:srgbClr val="000000">
               <a:alpha val="38000"/>
             </a:srgbClr>
@@ -869,7 +930,7 @@
         </a:effectLst>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -887,7 +948,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -912,7 +973,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -937,7 +998,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -962,7 +1023,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -987,7 +1048,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1012,7 +1073,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1037,7 +1098,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1062,7 +1123,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1087,7 +1148,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1112,7 +1173,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1125,9 +1186,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -1141,7 +1208,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1159,7 +1226,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1188,7 +1255,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1213,7 +1280,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1238,7 +1305,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1263,7 +1330,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1288,7 +1355,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1313,7 +1380,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1338,7 +1405,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1363,7 +1430,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1388,7 +1455,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1401,413 +1468,592 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E26"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="141" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="5" width="8.85156" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.85156" style="1" customWidth="1"/>
+    <col min="1" max="8" width="8.83203125" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="13.55" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s" s="2">
-        <v>3</v>
-      </c>
-      <c r="E1" s="3"/>
-    </row>
-    <row r="2" ht="13.55" customHeight="1">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="5"/>
-    </row>
-    <row r="3" ht="13.55" customHeight="1">
-      <c r="A3" t="s" s="6">
+      <c r="E1" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s" s="6">
+      <c r="C2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C3" t="s" s="6">
+      <c r="D2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D3" t="s" s="6">
+      <c r="E2" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="7">
+        <v>34.609276299999998</v>
+      </c>
+      <c r="G2" s="7">
+        <v>127.2878417</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="5"/>
-    </row>
-    <row r="4" ht="13.55" customHeight="1">
-      <c r="A4" t="s" s="6">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s" s="6">
+      <c r="C3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C4" t="s" s="6">
+      <c r="D3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D4" t="s" s="6">
+      <c r="E3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="7">
+        <v>35.276231500000002</v>
+      </c>
+      <c r="G3" s="7">
+        <v>127.2879463</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="5"/>
-    </row>
-    <row r="5" ht="13.55" customHeight="1">
-      <c r="A5" t="s" s="6">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s" s="6">
+      <c r="C4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C5" t="s" s="6">
+      <c r="D4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D5" t="s" s="6">
+      <c r="E4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="7">
+        <v>35.315762900000003</v>
+      </c>
+      <c r="G4" s="7">
+        <v>126.9850854</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="5"/>
-    </row>
-    <row r="6" ht="13.55" customHeight="1">
-      <c r="A6" t="s" s="6">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s" s="6">
+      <c r="D5" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C6" t="s" s="6">
+      <c r="E5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="7">
+        <v>35.236484500000003</v>
+      </c>
+      <c r="G5" s="7">
+        <v>127.0811886</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D6" t="s" s="6">
+      <c r="D6" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="5"/>
-    </row>
-    <row r="7" ht="13.55" customHeight="1">
-      <c r="A7" t="s" s="6">
-        <v>4</v>
-      </c>
-      <c r="B7" t="s" s="6">
-        <v>14</v>
-      </c>
-      <c r="C7" t="s" s="6">
+      <c r="E6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="7">
+        <v>35.252847000000003</v>
+      </c>
+      <c r="G6" s="7">
+        <v>127.00636</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D7" t="s" s="6">
+      <c r="C7" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="5"/>
-    </row>
-    <row r="8" ht="13.55" customHeight="1">
-      <c r="A8" t="s" s="6">
-        <v>4</v>
-      </c>
-      <c r="B8" t="s" s="6">
-        <v>14</v>
-      </c>
-      <c r="C8" t="s" s="6">
+      <c r="D7" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D8" t="s" s="6">
+      <c r="E7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="7">
+        <v>34.833759100000002</v>
+      </c>
+      <c r="G7" s="7">
+        <v>127.34592379999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="5"/>
-    </row>
-    <row r="9" ht="13.55" customHeight="1">
-      <c r="A9" t="s" s="6">
-        <v>4</v>
-      </c>
-      <c r="B9" t="s" s="6">
+      <c r="D8" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C9" t="s" s="6">
+      <c r="E8" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" s="7">
+        <v>34.763154</v>
+      </c>
+      <c r="G8" s="7">
+        <v>127.073384</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D9" t="s" s="6">
+      <c r="C9" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E9" s="5"/>
-    </row>
-    <row r="10" ht="13.55" customHeight="1">
-      <c r="A10" t="s" s="6">
-        <v>4</v>
-      </c>
-      <c r="B10" t="s" s="6">
-        <v>21</v>
-      </c>
-      <c r="C10" t="s" s="6">
+      <c r="D9" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="D10" t="s" s="6">
+      <c r="E9" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F9" s="7">
+        <v>34.961234699999999</v>
+      </c>
+      <c r="G9" s="7">
+        <v>127.5250228</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E10" s="5"/>
-    </row>
-    <row r="11" ht="13.55" customHeight="1">
-      <c r="A11" t="s" s="6">
-        <v>4</v>
-      </c>
-      <c r="B11" t="s" s="6">
+      <c r="D10" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C11" t="s" s="6">
+      <c r="E10" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10" s="7">
+        <v>34.953767800000001</v>
+      </c>
+      <c r="G10" s="7">
+        <v>127.51821889999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D11" t="s" s="6">
+      <c r="D11" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E11" s="5"/>
-    </row>
-    <row r="12" ht="13.55" customHeight="1">
-      <c r="A12" t="s" s="6">
-        <v>4</v>
-      </c>
-      <c r="B12" t="s" s="6">
-        <v>26</v>
-      </c>
-      <c r="C12" t="s" s="6">
+      <c r="E11" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F11" s="7">
+        <v>34.9412071</v>
+      </c>
+      <c r="G11" s="7">
+        <v>127.5083068</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="D12" t="s" s="6">
+      <c r="D12" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E12" s="5"/>
-    </row>
-    <row r="13" ht="13.55" customHeight="1">
-      <c r="A13" t="s" s="6">
-        <v>4</v>
-      </c>
-      <c r="B13" t="s" s="6">
-        <v>26</v>
-      </c>
-      <c r="C13" t="s" s="6">
+      <c r="E12" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F12" s="7">
+        <v>34.969082299999997</v>
+      </c>
+      <c r="G12" s="7">
+        <v>127.5224549</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D13" t="s" s="6">
+      <c r="D13" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E13" s="5"/>
-    </row>
-    <row r="14" ht="13.55" customHeight="1">
-      <c r="A14" t="s" s="6">
-        <v>4</v>
-      </c>
-      <c r="B14" t="s" s="6">
-        <v>26</v>
-      </c>
-      <c r="C14" t="s" s="6">
+      <c r="E13" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F13" s="7">
+        <v>34.954310700000001</v>
+      </c>
+      <c r="G13" s="7">
+        <v>127.5219436</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D14" t="s" s="6">
+      <c r="D14" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="E14" s="5"/>
-    </row>
-    <row r="15" ht="13.55" customHeight="1">
-      <c r="A15" t="s" s="6">
-        <v>4</v>
-      </c>
-      <c r="B15" t="s" s="6">
-        <v>26</v>
-      </c>
-      <c r="C15" t="s" s="6">
+      <c r="E14" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F14" s="7">
+        <v>34.954525500000003</v>
+      </c>
+      <c r="G14" s="7">
+        <v>127.518349</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D15" t="s" s="6">
+      <c r="D15" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="E15" s="5"/>
-    </row>
-    <row r="16" ht="13.55" customHeight="1">
-      <c r="A16" t="s" s="6">
-        <v>4</v>
-      </c>
-      <c r="B16" t="s" s="6">
-        <v>26</v>
-      </c>
-      <c r="C16" t="s" s="6">
+      <c r="E15" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F15" s="7">
+        <v>34.964632399999999</v>
+      </c>
+      <c r="G15" s="7">
+        <v>127.5437369</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D16" t="s" s="6">
+      <c r="D16" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="E16" s="5"/>
-    </row>
-    <row r="17" ht="13.55" customHeight="1">
-      <c r="A17" t="s" s="6">
-        <v>4</v>
-      </c>
-      <c r="B17" t="s" s="6">
-        <v>26</v>
-      </c>
-      <c r="C17" t="s" s="6">
+      <c r="E16" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F16" s="7">
+        <v>34.9132921</v>
+      </c>
+      <c r="G16" s="7">
+        <v>127.3268285</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D17" t="s" s="6">
+      <c r="D17" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F17" s="7">
+        <v>34.956364100000002</v>
+      </c>
+      <c r="G17" s="7">
+        <v>127.483946</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="E17" s="5"/>
-    </row>
-    <row r="18" ht="13.55" customHeight="1">
-      <c r="A18" t="s" s="6">
-        <v>4</v>
-      </c>
-      <c r="B18" t="s" s="6">
-        <v>26</v>
-      </c>
-      <c r="C18" t="s" s="6">
+      <c r="D18" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="D18" t="s" s="6">
+      <c r="E18" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F18" s="7">
+        <v>34.9496708</v>
+      </c>
+      <c r="G18" s="7">
+        <v>127.49851169999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="E18" s="5"/>
-    </row>
-    <row r="19" ht="13.55" customHeight="1">
-      <c r="A19" t="s" s="6">
-        <v>4</v>
-      </c>
-      <c r="B19" t="s" s="6">
-        <v>26</v>
-      </c>
-      <c r="C19" t="s" s="6">
+      <c r="D19" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="D19" t="s" s="6">
+      <c r="E19" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F19" s="7">
+        <v>34.957885599999997</v>
+      </c>
+      <c r="G19" s="7">
+        <v>127.4833799</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="E19" s="5"/>
-    </row>
-    <row r="20" ht="13.55" customHeight="1">
-      <c r="A20" t="s" s="6">
-        <v>4</v>
-      </c>
-      <c r="B20" t="s" s="6">
-        <v>26</v>
-      </c>
-      <c r="C20" t="s" s="6">
+      <c r="D20" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="D20" t="s" s="6">
+      <c r="E20" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" s="7">
+        <v>34.945582199999997</v>
+      </c>
+      <c r="G20" s="7">
+        <v>127.5244319</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B21" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="E20" s="5"/>
-    </row>
-    <row r="21" ht="13.55" customHeight="1">
-      <c r="A21" t="s" s="6">
-        <v>4</v>
-      </c>
-      <c r="B21" t="s" s="6">
-        <v>26</v>
-      </c>
-      <c r="C21" t="s" s="6">
+      <c r="C21" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="D21" t="s" s="6">
+      <c r="D21" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="E21" s="5"/>
-    </row>
-    <row r="22" ht="13.55" customHeight="1">
-      <c r="A22" t="s" s="6">
-        <v>4</v>
-      </c>
-      <c r="B22" t="s" s="6">
-        <v>26</v>
-      </c>
-      <c r="C22" t="s" s="6">
+      <c r="E21" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F21" s="7">
+        <v>34.994244299999998</v>
+      </c>
+      <c r="G21" s="7">
+        <v>126.9229912</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C22" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="D22" t="s" s="6">
+      <c r="D22" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="E22" s="5"/>
-    </row>
-    <row r="23" ht="13.55" customHeight="1">
-      <c r="A23" t="s" s="6">
-        <v>4</v>
-      </c>
-      <c r="B23" t="s" s="6">
+      <c r="E22" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F22" s="7">
+        <v>35.0563377</v>
+      </c>
+      <c r="G22" s="7">
+        <v>126.98959069999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C23" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C23" t="s" s="6">
+      <c r="D23" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="D23" t="s" s="6">
+      <c r="E23" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F23" s="7">
+        <v>35.058417599999999</v>
+      </c>
+      <c r="G23" s="7">
+        <v>126.989907</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C24" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="E23" s="5"/>
-    </row>
-    <row r="24" ht="13.55" customHeight="1">
-      <c r="A24" t="s" s="6">
-        <v>4</v>
-      </c>
-      <c r="B24" t="s" s="6">
-        <v>51</v>
-      </c>
-      <c r="C24" t="s" s="6">
+      <c r="D24" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="D24" t="s" s="6">
-        <v>55</v>
-      </c>
-      <c r="E24" s="5"/>
-    </row>
-    <row r="25" ht="13.55" customHeight="1">
-      <c r="A25" t="s" s="6">
-        <v>4</v>
-      </c>
-      <c r="B25" t="s" s="6">
-        <v>51</v>
-      </c>
-      <c r="C25" t="s" s="6">
-        <v>56</v>
-      </c>
-      <c r="D25" t="s" s="6">
-        <v>57</v>
-      </c>
-      <c r="E25" s="5"/>
-    </row>
-    <row r="26" ht="13.55" customHeight="1">
-      <c r="A26" t="s" s="6">
-        <v>4</v>
-      </c>
-      <c r="B26" t="s" s="6">
-        <v>51</v>
-      </c>
-      <c r="C26" t="s" s="6">
-        <v>58</v>
-      </c>
-      <c r="D26" t="s" s="6">
-        <v>59</v>
-      </c>
-      <c r="E26" s="5"/>
+      <c r="E24" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="F24" s="7">
+        <v>35.060187999999997</v>
+      </c>
+      <c r="G24" s="7">
+        <v>127.00233230000001</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
